--- a/similarities/split_global/harmonic_similarity_timestamps_6.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_6.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,698 +484,738 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_178</t>
+          <t>schubert-winterreise_36</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_105</t>
+          <t>schubert-winterreise_66</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj', 'D:min']]</t>
+          <t>['G:min/D', 'D:7', 'G:min']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min']]</t>
+          <t>['C:min/G', 'G:7', 'C:min']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:00:01.140000', '0:00:09.880000')]</t>
+          <t>('0:00:47.580000', '0:00:50.040000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:00:39.560000', '0:00:57.900000')]</t>
+          <t>('0:00:23.300000', '0:00:29.360000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-178#t=1.14']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-36#t=47.58</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-105#t=39.56']</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-66#t=23.3</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
       <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>jaah_86</t>
+          <t>schubert-winterreise_78</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>isophonics_280</t>
+          <t>schubert-winterreise_193</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['F:7', 'Bb', 'F:7', 'Bb']]</t>
+          <t>['D:min', 'A:maj', 'D:min']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['B:7', 'E', 'B:7', 'E']]</t>
+          <t>['C:min/G', 'G', 'C:min']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:00:12.430000', '0:00:17.230000')]</t>
+          <t>('0:00:07.400000', '0:00:12.020000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:01:03.474331', '0:01:11.056785')]</t>
+          <t>('0:00:13.720000', '0:00:20.760000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-86#t=12.43']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-78#t=7.4</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-280#t=63.474331']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-193#t=13.72</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>jaah_52</t>
+          <t>schubert-winterreise_94</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_168</t>
+          <t>schubert-winterreise_114</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['F:7', 'Bb', 'Bb:min', 'F']]</t>
+          <t>['A#:min', 'F:maj', 'A#:min']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['A#:7', 'D#:maj/A#', 'D#:min/A#', 'A#:maj']]</t>
+          <t>['D:min', 'A:maj', 'D:min']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:00:30.390000', '0:00:34.950000')]</t>
+          <t>('0:00:15.600000', '0:00:24.080000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:00:03.080000', '0:00:11.700000')]</t>
+          <t>('0:01:25.580000', '0:01:34.240000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-52#t=30.39']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-94#t=15.6</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-168#t=3.08']</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr">
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-114#t=85.58</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
         <is>
           <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
         </is>
       </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>isophonics_48</t>
+          <t>jaah_23</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>isophonics_159</t>
+          <t>jaah_83</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A', 'E']]</t>
+          <t>['C:min7', 'F:7', 'C:min7', 'F:7']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['A', 'D/5', 'A', 'E/4']]</t>
+          <t>['A:min7', 'D:7', 'A:min7', 'D:7']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:01:22.290863', '0:01:37.395443')]</t>
+          <t>('0:00:48.770000', '0:00:53.540000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:00:17.913000', '0:00:26.611000')]</t>
+          <t>('0:00:12.210000', '0:00:16.850000')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-48#t=82.290863']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-23#t=48.77</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-159#t=17.913']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-83#t=12.21</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>isophonics_124</t>
+          <t>isophonics_180</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_83</t>
+          <t>schubert-winterreise_67</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['F', 'Bb', 'F']]</t>
+          <t>['Bb:min', 'F', 'Bb:min', 'F']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
+          <t>['E:min/G', 'B:maj/F#', 'E:min/G', 'B:maj/F#']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:00:15.124263', '0:00:20.058503')]</t>
+          <t>('0:00:22.996837', '0:00:30.067314')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:02:12.300000', '0:02:16.560000')]</t>
+          <t>('0:01:27.260000', '0:01:30.520000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-124#t=15.124263']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-180#t=22.996837</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-83#t=132.3']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-67#t=87.26</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>isophonics_81</t>
+          <t>schubert-winterreise_203</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_114</t>
+          <t>isophonics_157</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['B', 'E/5', 'B']]</t>
+          <t>['G:maj', 'G:7/F', 'C:maj/E']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['D:maj/F#', 'G:maj', 'D:maj']]</t>
+          <t>['E', 'E:7/3', 'A']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:00:55.629773', '0:01:07.541609')]</t>
+          <t>('0:00:54.400000', '0:01:01.440000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:00:57.480000', '0:01:04.580000')]</t>
+          <t>('0:00:20.410362', '0:00:24.856984')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-81#t=55.629773']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-203#t=54.4</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-114#t=57.48']</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-157#t=20.410362</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
       <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_117</t>
+          <t>schubert-winterreise_122</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_66</t>
+          <t>isophonics_61</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:7', 'G:maj']]</t>
+          <t>['B:min', 'F#:maj', 'B:min']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['C/G', 'G:7', 'C']]</t>
+          <t>['F#:min', 'C#', 'F#:min']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:00:07.160000', '0:00:15.080000')]</t>
+          <t>('0:00:13.120000', '0:00:19.960000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:04:22.920000', '0:04:29.360000')]</t>
+          <t>('0:00:03.744784', '0:00:06.774988')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-117#t=7.16']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-122#t=13.12</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-66#t=262.92']</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-61#t=3.744784</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
       <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>isophonics_160</t>
+          <t>jaah_67</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>isophonics_59</t>
+          <t>schubert-winterreise_28</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['Eb:maj', 'Db:maj', 'Ab:maj']]</t>
+          <t>['C:7', 'F', 'C:7']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['D', 'C', 'G']]</t>
+          <t>['E:7', 'A:maj', 'E:7/G#']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:00:45.887000', '0:00:51.649000')]</t>
+          <t>('0:00:24.120000', '0:00:27')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:00:39.886643', '0:00:43.090997')]</t>
+          <t>('0:00:05.700000', '0:00:12.080000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-160#t=45.887']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-67#t=24.12</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-59#t=39.886643']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-28#t=5.7</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_157</t>
+          <t>schubert-winterreise_4</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_45</t>
+          <t>schubert-winterreise_170</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:7', 'F:min']]</t>
+          <t>['D:maj', 'G:maj', 'D:maj/F#']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
+          <t>['G:maj', 'C:maj/G', 'G:maj']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:00:02.560000', '0:00:06.820000')]</t>
+          <t>('0:01:06.520000', '0:01:10.140000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:00:36.660000', '0:00:43.940000')]</t>
+          <t>('0:00:16.020000', '0:00:22.500000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-157#t=2.56']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-4#t=66.52</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-45#t=36.66']</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-170#t=16.02</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_128</t>
+          <t>jaah_43</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>isophonics_108</t>
+          <t>schubert-winterreise_61</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['G:maj', 'C:maj/G', 'G:maj']]</t>
+          <t>['Bb:7', 'Eb', 'Ab']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A']]</t>
+          <t>['D:7', 'G:maj', 'C:maj/G']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:00:18.320000', '0:00:25.820000')]</t>
+          <t>('0:01:33.270000', '0:01:42.970000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:00:01.829138', '0:00:15.586961')]</t>
+          <t>('0:00:16.860000', '0:00:22.460000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-128#t=18.32']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-43#t=93.27</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-108#t=1.829138']</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-61#t=16.86</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr">
         <is>
           <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>jaah_21</t>
+          <t>schubert-winterreise_11</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>isophonics_294</t>
+          <t>isophonics_5</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['Db/3', 'Db:min/b3', 'Ab/b5']]</t>
+          <t>['C:maj', 'F:maj', 'C:maj/E']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['C', 'C:min', 'G/3']]</t>
+          <t>['E', 'A', 'E']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:00:04.300000', '0:00:05.850000')]</t>
+          <t>('0:01:09.860000', '0:01:13.740000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:00:15.565442', '0:00:19.466394')]</t>
+          <t>('0:00:09.162102', '0:00:14.073123')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-21#t=4.3']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-11#t=69.86</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-294#t=15.565442']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-5#t=9.162102</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>isophonics_200</t>
+          <t>isophonics_52</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>isophonics_236</t>
+          <t>schubert-winterreise_14</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'D']]</t>
+          <t>['G', 'C', 'G']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['A:maj', 'D:maj', 'G:maj']]</t>
+          <t>['D:maj', 'G:maj', 'D:maj/F#']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:00:22.597946', '0:00:31.200939')]</t>
+          <t>('0:00:06.774988', '0:00:12.022698')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:01:00.898000', '0:01:07.056000')]</t>
+          <t>('0:01:23.340000', '0:01:27.640000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-200#t=22.597946']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-52#t=6.774988</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-236#t=60.898']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-14#t=83.34</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_7</t>
+          <t>schubert-winterreise_44</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_70</t>
+          <t>schubert-winterreise_205</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['B:hdim7/D', 'E:(3,5,b7,b9)', 'A:min']]</t>
+          <t>['A#:min/F', 'F:7', 'A#:min']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['C#:hdim7/E', 'F#:(3,5,b7,b9)', 'B:min']]</t>
+          <t>['G:min/D', 'D:7', 'G:min']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:00:55.460000', '0:00:59.640000')]</t>
+          <t>('0:00:24.680000', '0:00:31.240000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:00:19.840000', '0:00:25.560000')]</t>
+          <t>('0:00:41.580000', '0:00:43.480000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-7#t=55.46']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-44#t=24.68</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-70#t=19.84']</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-205#t=41.58</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_89</t>
+          <t>schubert-winterreise_179</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_122</t>
+          <t>isophonics_111</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:7', 'G:min'], ['G:min', 'C:min/G', 'G:min']]</t>
+          <t>['F:maj', 'C:7/E', 'F:maj', 'C:7/E', 'F:maj', 'C:7/E', 'F:maj']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['B:min/F#', 'F#:7', 'B:min'], ['B:min', 'E:min/B', 'B:min']]</t>
+          <t>['C', 'G:7', 'C', 'G:7', 'C', 'G:7', 'C']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:00:04.160000', '0:00:08.800000'), ('0:00:01.640000', '0:00:05.020000')]</t>
+          <t>('0:00:37.840000', '0:00:48.740000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:01:20.200000', '0:01:26.860000'), ('0:00:26.200000', '0:00:33.960000')]</t>
+          <t>('0:01:10.519024', '0:01:22.732721')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-89#t=4.16', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-89#t=1.64']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-179#t=37.84</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-122#t=80.2', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-122#t=26.2']</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-111#t=70.519024</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>isophonics_43</t>
+          <t>jaah_3</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_55</t>
+          <t>jaah_21</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'E']]</t>
+          <t>['Eb', 'Bb:7', 'Eb']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['G:maj', 'C:maj/G', 'G:maj']]</t>
+          <t>['Ab', 'Eb:7', 'Ab']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:00:03.884104', '0:00:23.632675')]</t>
+          <t>('0:00:15.530000', '0:00:16.900000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:00:16.820000', '0:00:23.180000')]</t>
+          <t>('0:00:46.750000', '0:00:47.790000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-43#t=3.884104']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-3#t=15.53</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-55#t=16.82']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-21#t=46.75</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
